--- a/testing/testing_plates_202108/drugs.xlsx
+++ b/testing/testing_plates_202108/drugs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t xml:space="preserve">plate_batch</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">ANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,06</t>
   </si>
   <si>
     <t xml:space="preserve">20210812_AST_LoR_1_ani_SC2</t>
@@ -157,10 +160,10 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.37"/>
@@ -218,8 +221,8 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.06</v>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,7 +241,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -252,7 +255,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -266,7 +269,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -280,7 +283,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -294,13 +297,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -308,13 +311,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -322,13 +325,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>8</v>
@@ -336,13 +339,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>16</v>
@@ -350,13 +353,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>32</v>
@@ -364,13 +367,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>64</v>
@@ -378,13 +381,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>128</v>
@@ -392,13 +395,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>256</v>
